--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14073,6 +14073,190 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45206.04166666666</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-deportes-tolima/A3uYcVC9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45206.13194444445</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>3</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>02/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>02/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>02/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-dep-cali/vJ9YxUzp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14257,6 +14257,282 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45206.95833333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:56</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:56</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:56</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pereira/lliPairc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45207.04861111111</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-atl-nacional/Msawxljj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45207.13888888889</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>5</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-aguilas-doradas/A3J2rjDM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14533,6 +14533,282 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45207.95833333334</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-dep-pasto/WCKbqWcG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45208.04861111111</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-huila/SvjTbBc3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45208.13888888889</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>09/10/2023 03:15</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>09/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>09/10/2023 03:15</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-once-caldas/t2KhAKJT/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14809,6 +14809,98 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45210.125</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Petrolera</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:56</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:54</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:56</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-bucaramanga/0Ycsy85d/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14901,6 +14901,190 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45211.05208333334</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>15/08/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>12/10/2023 01:10</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>15/08/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>12/10/2023 01:10</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>15/08/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:57</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-deportes-tolima/zRCszD2C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45211.14583333334</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>12/10/2023 03:29</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>12/10/2023 03:29</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>12/10/2023 03:29</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-pereira-aguilas-doradas/pQLToA1O/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15085,6 +15085,190 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45213.04166666666</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:36</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:36</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:36</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-pasto-union-magdalena/Y1pDlRZe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45213.13194444445</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:07</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:07</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:07</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/once-caldas-jaguares-de-cordoba/S0R3Bls9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V161"/>
+  <dimension ref="A1:V164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15269,6 +15269,282 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45213.95833333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:54</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-pereira-la-equidad/n5lHmok2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45214.04861111111</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:08</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:08</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-ind-medellin/dzW7A8dF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45214.13888888889</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>15/10/2023 03:02</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>15/10/2023 03:16</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>15/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/millonarios-junior/vuo9k7Kk/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15545,6 +15545,282 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45214.95833333334</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>3</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Petrolera</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:45</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/aguilas-doradas-petrolera/0ln5jm5q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45215.04861111111</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-america-de-cali/dKspeTdS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45215.13888888889</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/deportes-tolima-santa-fe/ITrtd9sM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15821,6 +15821,190 @@
         </is>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45216.04513888889</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>3</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:57</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:00</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:00</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/huila-envigado/O6qxckSF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45216.13541666666</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:11</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/bucaramanga-chico/lASaCUR2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16005,6 +16005,98 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45218.125</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>27/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>27/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:21</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>27/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:21</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/millonarios-union-magdalena/SKNsmEbi/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16097,6 +16097,282 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45219.95833333334</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>3</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-cali/YFPo3Qlk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45220.04861111111</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:08</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:03</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:08</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-dep-pasto/zRUB9SBL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45220.13888888889</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>16/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>16/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>16/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-aguilas-doradas/IkKG8nRR/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V173"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16373,6 +16373,282 @@
         </is>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45220.95833333334</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>3</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-millonarios/vgQs46Zr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45221.04861111111</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:02</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:02</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:02</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-bucaramanga/C6Ok2p4e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45221.13888888889</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:14</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:14</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:14</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-once-caldas/UsJf14J1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16649,6 +16649,282 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45221.95833333334</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>17/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>17/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>17/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-atl-nacional/rB6K5vSp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45222.04861111111</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:08</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-dep-pereira/8YHb0OY7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45222.13888888889</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Petrolera</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>23/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>23/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>23/10/2023 03:19</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-deportes-tolima/zuApORQE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16925,6 +16925,98 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45223.125</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:23</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:23</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:39</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-huila/My6tP7B8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17017,6 +17017,190 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45224.04166666666</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>3</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>25/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>25/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>25/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/aguilas-doradas-envigado/GxOE6aes/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45224.13194444445</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>25/10/2023 03:07</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>25/10/2023 03:07</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>25/10/2023 03:09</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-jaguares-de-cordoba/lArO87rP/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17201,6 +17201,282 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45224.95833333334</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>25/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>25/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>25/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/bucaramanga-la-equidad/WYDw1ePI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45225.04861111111</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:04</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:01</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:01</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-pereira-junior/O8AV2Hf6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45225.13888888889</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:11</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:11</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:11</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/millonarios-chico/APCs0FvP/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17477,6 +17477,282 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45225.95833333334</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-pasto-ind-medellin/jJUk4Rjt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45226.04861111111</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:05</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:05</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:05</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/once-caldas-america-de-cali/2gMM4wQg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45226.13888888889</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Petrolera</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:11</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:11</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:11</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-petrolera/tpLQ3cu0/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V188"/>
+  <dimension ref="A1:V191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17753,6 +17753,282 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45227.04166666666</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>24/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>24/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>24/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/huila-santa-fe/fTMI5JAm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45227.13194444445</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:03</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/deportes-tolima-union-magdalena/xCEZ1yAC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45230.08333333334</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-millonarios/4QI6sASS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V191"/>
+  <dimension ref="A1:V196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18029,6 +18029,466 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45238.0625</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Petrolera</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:22</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:20</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:22</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45238.0625</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:23</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:23</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:23</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45238.0625</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45238.0625</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-huila/8KEJcszO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45238.0625</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:27</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:27</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:27</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V196"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Petrolera</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.98</v>
+        <v>3.75</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="N192" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
         <v>3.1</v>
       </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>01/11/2023 10:42</t>
-        </is>
-      </c>
-      <c r="P192" t="n">
-        <v>3.24</v>
-      </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:20</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.57</v>
+        <v>2.9</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,63 +18153,63 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>3.75</v>
+        <v>2.83</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Huila</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.7</v>
+        <v>1.51</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.83</v>
+        <v>1.3</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:28</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>2.92</v>
+        <v>4.13</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.26</v>
+        <v>5.33</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:28</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.03</v>
+        <v>7.03</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.69</v>
+        <v>12.68</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:28</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-huila/8KEJcszO/</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Petrolera</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,14 +18337,14 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Huila</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>1.51</v>
+        <v>2.18</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:28</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>4.13</v>
+        <v>3.1</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>5.33</v>
+        <v>3.24</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:28</t>
+          <t>08/11/2023 01:20</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>7.03</v>
+        <v>3.57</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>12.68</v>
+        <v>4.51</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:28</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-huila/8KEJcszO/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
         </is>
       </c>
     </row>
@@ -18486,6 +18486,466 @@
       <c r="V196" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45239.0625</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45239.0625</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>3</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:23</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45239.0625</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45239.0625</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45239.0625</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>4</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-ind-medellin/bqfTHpLu/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:V203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18949,6 +18949,190 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45242.95833333334</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-millonarios/Aq94KqJf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45243.0625</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-ind-medellin/OnD8J3Y0/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V203"/>
+  <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19133,6 +19133,98 @@
         </is>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45243.95833333334</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-aguilas-doradas/6B2DINm7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19225,6 +19225,98 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45244.08333333334</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>3</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>14/11/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>14/11/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>14/11/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/deportes-tolima-junior/p21HHs3D/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V205"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.75</v>
+        <v>2.29</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.97</v>
+        <v>3.43</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.1</v>
+        <v>3.33</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.9</v>
+        <v>4.45</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.25</v>
+        <v>3.36</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Petrolera</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.83</v>
+        <v>1.98</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:20</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.03</v>
+        <v>3.57</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.69</v>
+        <v>4.51</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Petrolera</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.98</v>
+        <v>2.83</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:20</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.57</v>
+        <v>3.03</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.51</v>
+        <v>2.69</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>1.82</v>
+        <v>2.65</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.29</v>
+        <v>3.75</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.43</v>
+        <v>2.97</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>4.45</v>
+        <v>2.9</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.36</v>
+        <v>2.25</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
         </is>
       </c>
     </row>
@@ -19314,6 +19314,374 @@
       <c r="V205" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/deportes-tolima-junior/p21HHs3D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45248.95833333334</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>4</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T206" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/aguilas-doradas-deportes-tolima/YoMfV0XC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45249.0625</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>3</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:24</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:24</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:24</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-dep-cali/WWvbUKnJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45249.91666666666</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/millonarios-america-de-cali/WAs6xIvt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45250.02083333334</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:22</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:22</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>13/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:22</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-atl-nacional/A1tAyxfn/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:V211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,63 +18337,63 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.83</v>
+        <v>3.75</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G196" t="n">
@@ -18429,63 +18429,63 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>3.75</v>
+        <v>2.83</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
         </is>
       </c>
     </row>
@@ -19682,6 +19682,190 @@
       <c r="V209" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-atl-nacional/A1tAyxfn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45255.95833333334</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>4</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/deportes-tolima-dep-cali/vyoEzd9h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45256.0625</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>3</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>19/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:20</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>19/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:19</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>19/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:20</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-aguilas-doradas/IRqIZFOb/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V211"/>
+  <dimension ref="A1:V213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>1.82</v>
+        <v>2.65</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.29</v>
+        <v>3.75</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.43</v>
+        <v>2.97</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>4.45</v>
+        <v>2.9</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.36</v>
+        <v>2.25</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Petrolera</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1.98</v>
+        <v>2.83</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:20</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.57</v>
+        <v>3.03</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>4.51</v>
+        <v>2.69</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Petrolera</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.75</v>
+        <v>1.98</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:20</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.9</v>
+        <v>3.57</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>2.7</v>
+        <v>1.82</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.83</v>
+        <v>2.29</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>2.92</v>
+        <v>3.43</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.26</v>
+        <v>3.33</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>3.03</v>
+        <v>4.45</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.69</v>
+        <v>3.36</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J197" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.4</v>
+        <v>3.88</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.38</v>
+        <v>3.16</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         </is>
       </c>
       <c r="R197" t="n">
-        <v>7.32</v>
+        <v>2.44</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>8.09</v>
+        <v>1.98</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-ind-medellin/bqfTHpLu/</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -18613,14 +18613,14 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.32</v>
+        <v>2.94</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.44</v>
+        <v>3.02</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:23</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.17</v>
+        <v>3.52</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>4.53</v>
+        <v>4.16</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="n">
-        <v>3.28</v>
+        <v>1.46</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,39 +18720,39 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>3.85</v>
+        <v>1.4</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
           <t>09/11/2023 01:29</t>
         </is>
       </c>
-      <c r="N199" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="O199" t="inlineStr">
+      <c r="R199" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S199" t="inlineStr">
         <is>
           <t>02/11/2023 01:42</t>
         </is>
       </c>
-      <c r="P199" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q199" t="inlineStr">
-        <is>
-          <t>09/11/2023 01:28</t>
-        </is>
-      </c>
-      <c r="R199" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>02/11/2023 01:42</t>
-        </is>
-      </c>
       <c r="T199" t="n">
-        <v>2.22</v>
+        <v>8.09</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -18797,14 +18797,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J200" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2.94</v>
+        <v>3.32</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,32 +18828,32 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.02</v>
+        <v>3.44</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
+          <t>09/11/2023 01:23</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
           <t>09/11/2023 01:26</t>
         </is>
       </c>
-      <c r="R200" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>02/11/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T200" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U200" t="inlineStr">
-        <is>
-          <t>09/11/2023 01:26</t>
-        </is>
-      </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
         </is>
       </c>
     </row>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -18889,14 +18889,14 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>3.17</v>
+        <v>3.28</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.16</v>
+        <v>2.99</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,32 +18920,32 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.53</v>
+        <v>2.99</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
+          <t>09/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
           <t>09/11/2023 01:29</t>
         </is>
       </c>
-      <c r="R201" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>02/11/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T201" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U201" t="inlineStr">
-        <is>
-          <t>09/11/2023 01:29</t>
-        </is>
-      </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-ind-medellin/bqfTHpLu/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
         </is>
       </c>
     </row>
@@ -19866,6 +19866,190 @@
       <c r="V211" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/junior-aguilas-doradas/IRqIZFOb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45256.91666666666</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/millonarios-ind-medellin/0jZMYZw5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45257.02083333334</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:24</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-america-de-cali/EgwRXggB/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V213"/>
+  <dimension ref="A1:V215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J199" t="n">
-        <v>1.46</v>
+        <v>1.99</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>4.38</v>
+        <v>3.32</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4.66</v>
+        <v>3.44</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:23</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>7.32</v>
+        <v>4.17</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>8.09</v>
+        <v>4.53</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
         </is>
       </c>
     </row>
@@ -18789,22 +18789,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
         <v>2</v>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Deportes Tolima</t>
-        </is>
-      </c>
-      <c r="I200" t="n">
-        <v>3</v>
-      </c>
       <c r="J200" t="n">
-        <v>1.99</v>
+        <v>1.46</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.32</v>
+        <v>4.38</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.44</v>
+        <v>4.66</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>09/11/2023 01:23</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>4.17</v>
+        <v>7.32</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>4.53</v>
+        <v>8.09</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
         </is>
       </c>
     </row>
@@ -20050,6 +20050,190 @@
       <c r="V213" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-america-de-cali/EgwRXggB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45260.01041666666</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>30/11/2023 00:11</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>30/11/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>30/11/2023 00:11</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/aguilas-doradas-junior/tEEOkEab/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45260.10416666666</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>2</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:26</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:21</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:26</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-deportes-tolima/K4DSlYE4/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V215"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="I198" t="n">
         <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.39</v>
+        <v>3.28</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.11</v>
+        <v>3.85</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:28</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.52</v>
+        <v>2.48</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>4.16</v>
+        <v>2.22</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.32</v>
+        <v>2.94</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.44</v>
+        <v>3.02</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>09/11/2023 01:23</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.17</v>
+        <v>3.52</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>4.53</v>
+        <v>4.16</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J201" t="n">
-        <v>3.28</v>
+        <v>1.99</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2.99</v>
+        <v>3.32</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2.99</v>
+        <v>3.44</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>09/11/2023 01:28</t>
+          <t>09/11/2023 01:23</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>2.48</v>
+        <v>4.17</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>2.22</v>
+        <v>4.53</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
         </is>
       </c>
     </row>
@@ -20234,6 +20234,190 @@
       <c r="V215" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-deportes-tolima/K4DSlYE4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45261.01041666666</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:13</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:14</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:14</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-atl-nacional/ERCWmhUA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45261.10416666666</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:28</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:28</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-millonarios/Q1GzmCqH/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-a_2023.xlsx
+++ b/2023/colombia_primera-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Petrolera</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.75</v>
+        <v>1.98</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:20</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.9</v>
+        <v>3.57</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/11/2023 01:23</t>
+          <t>08/11/2023 01:22</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Huila</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>2.7</v>
+        <v>1.51</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.83</v>
+        <v>1.3</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:28</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.92</v>
+        <v>4.13</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.26</v>
+        <v>5.33</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:28</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.03</v>
+        <v>7.03</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.69</v>
+        <v>12.68</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>08/11/2023 01:29</t>
+          <t>08/11/2023 01:28</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-huila/8KEJcszO/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Huila</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1.3</v>
+        <v>2.29</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>08/11/2023 01:28</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>4.13</v>
+        <v>3.43</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>5.33</v>
+        <v>3.33</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>08/11/2023 01:28</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>7.03</v>
+        <v>4.45</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>12.68</v>
+        <v>3.36</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>08/11/2023 01:28</t>
+          <t>08/11/2023 01:27</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-huila/8KEJcszO/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Petrolera</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.98</v>
+        <v>3.75</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="N195" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
         <v>3.1</v>
       </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>01/11/2023 10:42</t>
-        </is>
-      </c>
-      <c r="P195" t="n">
-        <v>3.24</v>
-      </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:20</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.57</v>
+        <v>2.9</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>01/11/2023 10:42</t>
+          <t>01/11/2023 10:43</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>08/11/2023 01:22</t>
+          <t>08/11/2023 01:23</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/petrolera-dep-pereira/QePEbNKH/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/chico-dep-cali/pGp3UN4o/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.29</v>
+        <v>2.83</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.43</v>
+        <v>2.92</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.33</v>
+        <v>3.26</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>4.45</v>
+        <v>3.03</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>01/11/2023 10:43</t>
+          <t>01/11/2023 10:42</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.36</v>
+        <v>2.69</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>08/11/2023 01:27</t>
+          <t>08/11/2023 01:29</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/santa-fe-once-caldas/n5QAa35B/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/envigado-dep-pasto/ptUg3o6n/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J197" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,48 +18536,48 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>3.88</v>
+        <v>1.4</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
+          <t>09/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
           <t>09/11/2023 01:29</t>
         </is>
       </c>
-      <c r="N197" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O197" t="inlineStr">
+      <c r="R197" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S197" t="inlineStr">
         <is>
           <t>02/11/2023 01:42</t>
         </is>
       </c>
-      <c r="P197" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q197" t="inlineStr">
+      <c r="T197" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="U197" t="inlineStr">
         <is>
           <t>09/11/2023 01:29</t>
         </is>
       </c>
-      <c r="R197" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>02/11/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T197" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>09/11/2023 01:29</t>
-        </is>
-      </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-ind-medellin/bqfTHpLu/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>3.28</v>
+        <v>1.99</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>2.99</v>
+        <v>3.32</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2.99</v>
+        <v>3.44</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:28</t>
+          <t>09/11/2023 01:23</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>2.48</v>
+        <v>4.17</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>2.22</v>
+        <v>4.53</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.39</v>
+        <v>3.28</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.11</v>
+        <v>3.85</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:28</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.52</v>
+        <v>2.48</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>4.16</v>
+        <v>2.22</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/jaguares-de-cordoba-aguilas-doradas/dGXc25Lh/</t>
         </is>
       </c>
     </row>
@@ -18789,22 +18789,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G200" t="n">
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
         <v>1</v>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Bucaramanga</t>
-        </is>
-      </c>
-      <c r="I200" t="n">
-        <v>2</v>
-      </c>
       <c r="J200" t="n">
-        <v>1.46</v>
+        <v>2.39</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.4</v>
+        <v>2.11</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>4.38</v>
+        <v>2.94</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>4.66</v>
+        <v>3.02</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>7.32</v>
+        <v>3.52</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>8.09</v>
+        <v>4.16</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>09/11/2023 01:29</t>
+          <t>09/11/2023 01:26</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-bucaramanga/IVL60qj5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/la-equidad-millonarios/vuN21Pza/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J201" t="n">
-        <v>1.99</v>
+        <v>3.17</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.87</v>
+        <v>3.88</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>09/11/2023 01:23</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>4.17</v>
+        <v>2.44</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>4.53</v>
+        <v>1.98</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>09/11/2023 01:26</t>
+          <t>09/11/2023 01:29</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-deportes-tolima/MNINd1kU/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/union-magdalena-ind-medellin/bqfTHpLu/</t>
         </is>
       </c>
     </row>
@@ -20418,6 +20418,926 @@
       <c r="V217" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-millonarios/Q1GzmCqH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>02/12/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>02/12/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>02/12/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/deportes-tolima-aguilas-doradas/8Q5unWbN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45263.09375</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:14</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:14</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>30/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:14</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/dep-cali-junior/nH4qojET/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45263.89583333334</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>5</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:26</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/atl-nacional-ind-medellin/v9dBtAMp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45264.04166666666</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>04/12/2023 00:55</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>04/12/2023 00:50</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>04/12/2023 00:55</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/america-de-cali-millonarios/IaeFuUyi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>06/12/2023 23:52</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>06/12/2023 23:52</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>06/12/2023 23:43</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/millonarios-atl-nacional/MLZOKVR9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>3</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>06/12/2023 23:15</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>06/12/2023 23:15</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>06/12/2023 23:15</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/aguilas-doradas-dep-cali/UoZSJksG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45267.09375</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>07/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>07/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>07/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-america-de-cali/rVzLLBC3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45267.09375</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>4</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>07/12/2023 02:05</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>07/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>07/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-deportes-tolima/8xYWI9dM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45270.91666666666</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>3</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>07/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:56</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>07/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:56</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>07/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:56</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/junior-ind-medellin/jFjvuB1g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>primera-a</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45274.08333333334</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>11/12/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>14/12/2023 01:57</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>11/12/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>14/12/2023 01:57</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>11/12/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>14/12/2023 01:57</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-a/ind-medellin-junior/U5krvVGa/</t>
         </is>
       </c>
     </row>
